--- a/2024/Peaks-dataset/shuffle-architecute/Teste12/better_results.xlsx
+++ b/2024/Peaks-dataset/shuffle-architecute/Teste12/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,42 +1352,42 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_2_7_2</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9976648324576204</v>
+        <v>0.9976057346972085</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7401949503356836</v>
+        <v>0.7489704476588868</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9991245876630453</v>
+        <v>0.9962200729834959</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9895227894057785</v>
+        <v>0.9992906573090928</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9981863234546213</v>
+        <v>0.9985931698421254</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00980019848793745</v>
+        <v>0.01004821993410587</v>
       </c>
       <c r="I21" t="n">
-        <v>1.737317562103271</v>
+        <v>1.678635835647583</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007602598983794451</v>
+        <v>0.01194720435887575</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0104912044480443</v>
+        <v>0.00567294005304575</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009046896360814571</v>
+        <v>0.0088100740686059</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1397,42 +1397,42 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_6_3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9976057346972085</v>
+        <v>0.9973659555168281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7489704476588868</v>
+        <v>0.7497803954183281</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9962200729834959</v>
+        <v>0.9937340310711628</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9992906573090928</v>
+        <v>0.9940604727668597</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9985931698421254</v>
+        <v>0.9942041172326462</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01004821993410587</v>
+        <v>0.01105452049523592</v>
       </c>
       <c r="I22" t="n">
-        <v>1.678635835647583</v>
+        <v>1.673219680786133</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01194720435887575</v>
+        <v>0.01595992967486382</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00567294005304575</v>
+        <v>0.01613776572048664</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0088100740686059</v>
+        <v>0.01604887470602989</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1442,42 +1442,42 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_2_7_1</t>
+          <t>model_2_6_2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9974818193083879</v>
+        <v>0.9972980021511276</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7406240685286314</v>
+        <v>0.7505358620971213</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993780393226585</v>
+        <v>0.9957758886657314</v>
       </c>
       <c r="F23" t="n">
-        <v>0.992596275486757</v>
+        <v>0.9946926691763731</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9987154478736591</v>
+        <v>0.9954534165752402</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01056826487183571</v>
+        <v>0.01133970730006695</v>
       </c>
       <c r="I23" t="n">
-        <v>1.734448194503784</v>
+        <v>1.66816782951355</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005401474889367819</v>
+        <v>0.01075915340334177</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007413613144308329</v>
+        <v>0.01442008092999458</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006407543085515499</v>
+        <v>0.01258954964578152</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1487,42 +1487,42 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_2_6_3</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9973659555168281</v>
+        <v>0.9972656338621677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7497803954183281</v>
+        <v>0.7491017516244078</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9937340310711628</v>
+        <v>0.9962517613397308</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9940604727668597</v>
+        <v>0.9994872956951546</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9942041172326462</v>
+        <v>0.9987267270253231</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01105452049523592</v>
+        <v>0.01147554907947779</v>
       </c>
       <c r="I24" t="n">
-        <v>1.673219680786133</v>
+        <v>1.677757740020752</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01595992967486382</v>
+        <v>0.01184704713523388</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01613776572048664</v>
+        <v>0.004100332502275705</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01604887470602989</v>
+        <v>0.007973691448569298</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1532,42 +1532,42 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_2_6_4</t>
+          <t>model_2_7_0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9973570919186172</v>
+        <v>0.9971603557344033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7490588484911161</v>
+        <v>0.7410328178760557</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9915540020354939</v>
+        <v>0.9996054149112468</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9934265645757854</v>
+        <v>0.9946188308794151</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9928904786274546</v>
+        <v>0.9991163896601674</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01109171845018864</v>
+        <v>0.01191737968474627</v>
       </c>
       <c r="I25" t="n">
-        <v>1.678044676780701</v>
+        <v>1.731714725494385</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02151264064013958</v>
+        <v>0.003426810493692756</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01786010339856148</v>
+        <v>0.005388356279581785</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01968635804951191</v>
+        <v>0.004407583735883236</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1577,42 +1577,42 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_2_6_2</t>
+          <t>model_2_6_1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9972980021511276</v>
+        <v>0.9971260209227053</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7505358620971213</v>
+        <v>0.7513188605937775</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9957758886657314</v>
+        <v>0.9975739001708162</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9946926691763731</v>
+        <v>0.9953036569799553</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9954534165752402</v>
+        <v>0.9965801001357383</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01133970730006695</v>
+        <v>0.01206147391349077</v>
       </c>
       <c r="I26" t="n">
-        <v>1.66816782951355</v>
+        <v>1.6629319190979</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01075915340334177</v>
+        <v>0.006179472431540489</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01442008092999458</v>
+        <v>0.01276001986116171</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01258954964578152</v>
+        <v>0.009469747543334961</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1622,42 +1622,42 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_2_6_5</t>
+          <t>model_2_9_3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9972925817354109</v>
+        <v>0.9968260663009889</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7483754575923574</v>
+        <v>0.7492126142398978</v>
       </c>
       <c r="E27" t="n">
-        <v>0.989315223811572</v>
+        <v>0.9962758812400421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9928044159874702</v>
+        <v>0.9996712410404219</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9915555633087062</v>
+        <v>0.9988502694080069</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01136245485395193</v>
+        <v>0.0133203212171793</v>
       </c>
       <c r="I27" t="n">
-        <v>1.68261444568634</v>
+        <v>1.677016496658325</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02721498906612396</v>
+        <v>0.01177081093192101</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01955048739910126</v>
+        <v>0.002629236783832312</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0233827568590641</v>
+        <v>0.007200024556368589</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1667,42 +1667,42 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_6_0</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9972656338621677</v>
+        <v>0.9968150837573139</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7491017516244078</v>
+        <v>0.752119777579756</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9962517613397308</v>
+        <v>0.9989877137701557</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9994872956951546</v>
+        <v>0.9958658185190911</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9987267270253231</v>
+        <v>0.9975061519189237</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01147554907947779</v>
+        <v>0.01336641237139702</v>
       </c>
       <c r="I28" t="n">
-        <v>1.677757740020752</v>
+        <v>1.657576203346252</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01184704713523388</v>
+        <v>0.002578374929726124</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004100332502275705</v>
+        <v>0.01123262010514736</v>
       </c>
       <c r="L28" t="n">
-        <v>0.007973691448569298</v>
+        <v>0.00690549798309803</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1712,42 +1712,42 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>model_2_7_0</t>
+          <t>model_2_9_2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9971603557344033</v>
+        <v>0.9962607224695439</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7410328178760557</v>
+        <v>0.7492921900092262</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9996054149112468</v>
+        <v>0.9962892354121849</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9946188308794151</v>
+        <v>0.9998303261889776</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9991163896601674</v>
+        <v>0.9989552200960535</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01191737968474627</v>
+        <v>0.0156929474323988</v>
       </c>
       <c r="I29" t="n">
-        <v>1.731714725494385</v>
+        <v>1.676484346389771</v>
       </c>
       <c r="J29" t="n">
-        <v>0.003426810493692756</v>
+        <v>0.01172860246151686</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005388356279581785</v>
+        <v>0.001356959575787187</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004407583735883236</v>
+        <v>0.00654278602451086</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1757,42 +1757,42 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>model_2_6_1</t>
+          <t>model_2_8_1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9971260209227053</v>
+        <v>0.9959543820560171</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7513188605937775</v>
+        <v>0.7385916330408657</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9975739001708162</v>
+        <v>0.9939756322153578</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9953036569799553</v>
+        <v>0.997048389980572</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9965801001357383</v>
+        <v>0.9977626905837195</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01206147391349077</v>
+        <v>0.01697859354317188</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6629319190979</v>
+        <v>1.74803900718689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.006179472431540489</v>
+        <v>0.003025708720088005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01276001986116171</v>
+        <v>0.01694742403924465</v>
       </c>
       <c r="L30" t="n">
-        <v>0.009469747543334961</v>
+        <v>0.009986566379666328</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1802,42 +1802,42 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>model_2_9_3</t>
+          <t>model_2_8_2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9968260663009889</v>
+        <v>0.9959240407355114</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7492126142398978</v>
+        <v>0.739986987006317</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9962758812400421</v>
+        <v>0.9890959740608812</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9996712410404219</v>
+        <v>0.9945047932064768</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9988502694080069</v>
+        <v>0.99585220613711</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0133203212171793</v>
+        <v>0.01710592955350876</v>
       </c>
       <c r="I31" t="n">
-        <v>1.677016496658325</v>
+        <v>1.738708257675171</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01177081093192101</v>
+        <v>0.005476492457091808</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002629236783832312</v>
+        <v>0.03155213594436646</v>
       </c>
       <c r="L31" t="n">
-        <v>0.007200024556368589</v>
+        <v>0.01851430162787437</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -1847,449 +1847,44 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>model_2_6_0</t>
+          <t>model_2_8_0</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9968150837573139</v>
+        <v>0.9957163527302335</v>
       </c>
       <c r="D32" t="n">
-        <v>0.752119777579756</v>
+        <v>0.7368561578619318</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9989877137701557</v>
+        <v>0.9977856245975988</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9958658185190911</v>
+        <v>0.9991175386240988</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9975061519189237</v>
+        <v>0.9993078493343711</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01336641237139702</v>
+        <v>0.01797755248844624</v>
       </c>
       <c r="I32" t="n">
-        <v>1.657576203346252</v>
+        <v>1.759644031524658</v>
       </c>
       <c r="J32" t="n">
-        <v>0.002578374929726124</v>
+        <v>0.00111215899232775</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01123262010514736</v>
+        <v>0.005066877696663141</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00690549798309803</v>
+        <v>0.003089518286287785</v>
       </c>
       <c r="M32" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>model_2_9_2</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.9962607224695439</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.7492921900092262</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9962892354121849</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.9998303261889776</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.9989552200960535</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0156929474323988</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.676484346389771</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.01172860246151686</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.001356959575787187</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.00654278602451086</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>model_2_8_1</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9959543820560171</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.7385916330408657</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9939756322153578</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.997048389980572</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.9977626905837195</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.01697859354317188</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.74803900718689</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.003025708720088005</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.01694742403924465</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.009986566379666328</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>model_2_8_2</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.9959240407355114</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.739986987006317</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.9890959740608812</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.9945047932064768</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.99585220613711</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.01710592955350876</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.738708257675171</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.005476492457091808</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.03155213594436646</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.01851430162787437</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>model_2_8_3</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.9957691200922475</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.7411353666261915</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.9837536820011908</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9919660845175583</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9939188318670997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.01775609701871872</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.731029033660889</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.008159631863236427</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.0461287796497345</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.02714420482516289</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>model_2_8_0</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.9957163527302335</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.7368561578619318</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9977856245975988</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.9991175386240988</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.9993078493343711</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.01797755248844624</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.759644031524658</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.00111215899232775</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.005066877696663141</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.003089518286287785</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>model_2_9_1</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.9955364613803883</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.7493262431428716</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.9962872952952412</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.9999475584218852</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.999029587991291</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.01873251609504223</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.676256656646729</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.01173473335802555</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0004193994682282209</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.006077066995203495</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>model_2_9_0</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.994611561390835</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.7492963477433536</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.9962644865142456</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.999999289875782</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.9990568644065421</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.0226141232997179</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.676456451416016</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.01180682610720396</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.67919050808996e-06</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.005906252656131983</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>model_2_5_8</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.9936095827339207</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.7389631882985441</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.9867765028438514</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9967662217996764</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.9933972723980892</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.02681921049952507</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.745554447174072</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.03547453880310059</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.01633712276816368</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.02590582706034184</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>model_2_5_7</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.992758414753511</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.7366539992271954</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.9881354570321175</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.9969955351413641</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.9940095031048163</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0303913839161396</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.760995864868164</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.03182888776063919</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.01517862640321255</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.02350373566150665</v>
-      </c>
-      <c r="M41" t="inlineStr">
         <is>
           <t>Hidden Size=[5, 6], regularizer=0.02, learning_rate=0.1</t>
         </is>
